--- a/Documentacion/procesos.xlsx
+++ b/Documentacion/procesos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\324\proyecto\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PROYECTO_FINAL-master\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FF9D263-1AF7-4EAA-AD5E-5FAE8CC02B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6EF17B-3719-4E0B-B418-470B81105A61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{54A9CB2A-02AA-4097-92D6-10F5E1C2DCBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{54A9CB2A-02AA-4097-92D6-10F5E1C2DCBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="57">
   <si>
     <t>codFlujo</t>
   </si>
@@ -154,6 +154,48 @@
   </si>
   <si>
     <t>fin.php</t>
+  </si>
+  <si>
+    <t>codProcesoSig</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>inicioreserva.php</t>
+  </si>
+  <si>
+    <t>elegirhab.php</t>
+  </si>
+  <si>
+    <t>elegirfecha.php</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>consultafecha.php</t>
+  </si>
+  <si>
+    <t>otrasopciones.php</t>
+  </si>
+  <si>
+    <t>ingresarci.php</t>
+  </si>
+  <si>
+    <t>clientenuevo.php</t>
+  </si>
+  <si>
+    <t>datoscliente.php</t>
+  </si>
+  <si>
+    <t>asignarhab.php</t>
+  </si>
+  <si>
+    <t>finreserva.php</t>
   </si>
 </sst>
 </file>
@@ -169,15 +211,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -185,11 +239,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,6 +288,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -250,7 +345,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -546,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1782E4-20B3-4BBC-8DC1-C0CCD15A4A16}">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
@@ -905,6 +1000,262 @@
         <v>42</v>
       </c>
     </row>
+    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
